--- a/pb_ex/model2scheme/rule.xlsx
+++ b/pb_ex/model2scheme/rule.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YandexDisk\schemes\pb_ex\model2se\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YandexDisk\Документы\370-24_балаково_птвм180n3n4\370-24_балаково_птвм180n3n4_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A7A202-A102-4FE7-9526-D99ACFB768D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE0F9D0-CE55-43DE-96B1-9B34ADB0D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>row</t>
   </si>
@@ -63,7 +72,34 @@
     <t>group</t>
   </si>
   <si>
-    <t>name</t>
+    <t>se0003</t>
+  </si>
+  <si>
+    <t>se0005</t>
+  </si>
+  <si>
+    <t>se0009</t>
+  </si>
+  <si>
+    <t>se0010</t>
+  </si>
+  <si>
+    <t>se0011</t>
+  </si>
+  <si>
+    <t>se0018</t>
+  </si>
+  <si>
+    <t>se0021</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>CP, Tm1</t>
+  </si>
+  <si>
+    <t>sort</t>
   </si>
 </sst>
 </file>
@@ -381,24 +417,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -426,8 +463,11 @@
       <c r="I1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -435,22 +475,25 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -461,13 +504,138 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>165</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>3</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
